--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1095.454402063306</v>
+        <v>1180.65292464991</v>
       </c>
       <c r="AB2" t="n">
-        <v>1498.849040940413</v>
+        <v>1615.421418236946</v>
       </c>
       <c r="AC2" t="n">
-        <v>1355.8009921209</v>
+        <v>1461.247865338612</v>
       </c>
       <c r="AD2" t="n">
-        <v>1095454.402063306</v>
+        <v>1180652.92464991</v>
       </c>
       <c r="AE2" t="n">
-        <v>1498849.040940413</v>
+        <v>1615421.418236946</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266977075998844e-06</v>
+        <v>2.344239303477938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99381510416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1355800.9921209</v>
+        <v>1461247.865338611</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.6770684518789</v>
+        <v>577.4594709065915</v>
       </c>
       <c r="AB3" t="n">
-        <v>723.3592886420254</v>
+        <v>790.1055238082697</v>
       </c>
       <c r="AC3" t="n">
-        <v>654.3228933751676</v>
+        <v>714.6989615360753</v>
       </c>
       <c r="AD3" t="n">
-        <v>528677.0684518788</v>
+        <v>577459.4709065915</v>
       </c>
       <c r="AE3" t="n">
-        <v>723359.2886420253</v>
+        <v>790105.5238082698</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.988042953518304e-06</v>
+        <v>3.678399962340143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>654322.8933751676</v>
+        <v>714698.9615360753</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.1081207786984</v>
+        <v>473.8051823788394</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.6516852960824</v>
+        <v>648.2811533401293</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.1396648046909</v>
+        <v>586.4101099336598</v>
       </c>
       <c r="AD4" t="n">
-        <v>425108.1207786984</v>
+        <v>473805.1823788395</v>
       </c>
       <c r="AE4" t="n">
-        <v>581651.6852960824</v>
+        <v>648281.1533401293</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.262445726278849e-06</v>
+        <v>4.186116934552498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.717122395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>526139.664804691</v>
+        <v>586410.1099336598</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.1978094679597</v>
+        <v>420.6993599629736</v>
       </c>
       <c r="AB5" t="n">
-        <v>525.6763925251736</v>
+        <v>575.6194242472078</v>
       </c>
       <c r="AC5" t="n">
-        <v>475.506575414021</v>
+        <v>520.6831142839894</v>
       </c>
       <c r="AD5" t="n">
-        <v>384197.8094679597</v>
+        <v>420699.3599629736</v>
       </c>
       <c r="AE5" t="n">
-        <v>525676.3925251736</v>
+        <v>575619.4242472078</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.403148338919251e-06</v>
+        <v>4.44645360591147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.3232421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>475506.575414021</v>
+        <v>520683.1142839894</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>355.6080761310309</v>
+        <v>392.1096266260449</v>
       </c>
       <c r="AB6" t="n">
-        <v>486.5586580835704</v>
+        <v>536.5016898056045</v>
       </c>
       <c r="AC6" t="n">
-        <v>440.1221826454392</v>
+        <v>485.2987215154077</v>
       </c>
       <c r="AD6" t="n">
-        <v>355608.0761310309</v>
+        <v>392109.6266260449</v>
       </c>
       <c r="AE6" t="n">
-        <v>486558.6580835704</v>
+        <v>536501.6898056045</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.498381693194772e-06</v>
+        <v>4.622660244787483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.082356770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>440122.1826454392</v>
+        <v>485298.7215154077</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>319.6700137471651</v>
+        <v>356.2568155881996</v>
       </c>
       <c r="AB7" t="n">
-        <v>437.3866156545499</v>
+        <v>487.4462920292333</v>
       </c>
       <c r="AC7" t="n">
-        <v>395.6430509324495</v>
+        <v>440.9251020531302</v>
       </c>
       <c r="AD7" t="n">
-        <v>319670.0137471651</v>
+        <v>356256.8155881996</v>
       </c>
       <c r="AE7" t="n">
-        <v>437386.6156545499</v>
+        <v>487446.2920292333</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.567939388229344e-06</v>
+        <v>4.751360191809669e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.91796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>395643.0509324495</v>
+        <v>440925.1020531302</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.4775713128515</v>
+        <v>352.064373153886</v>
       </c>
       <c r="AB8" t="n">
-        <v>431.6503309584155</v>
+        <v>481.7100073330989</v>
       </c>
       <c r="AC8" t="n">
-        <v>390.454229196788</v>
+        <v>435.7362803174688</v>
       </c>
       <c r="AD8" t="n">
-        <v>315477.5713128515</v>
+        <v>352064.373153886</v>
       </c>
       <c r="AE8" t="n">
-        <v>431650.3309584155</v>
+        <v>481710.0073330989</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.578209651925723e-06</v>
+        <v>4.7703628685512e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.8935546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>390454.229196788</v>
+        <v>435736.2803174687</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.9470307000189</v>
+        <v>829.6803400175845</v>
       </c>
       <c r="AB2" t="n">
-        <v>1054.84373918633</v>
+        <v>1135.205244125357</v>
       </c>
       <c r="AC2" t="n">
-        <v>954.170933200872</v>
+        <v>1026.862848896599</v>
       </c>
       <c r="AD2" t="n">
-        <v>770947.0307000189</v>
+        <v>829680.3400175845</v>
       </c>
       <c r="AE2" t="n">
-        <v>1054843.73918633</v>
+        <v>1135205.244125357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.556770818866858e-06</v>
+        <v>2.967445440934818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.09765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>954170.933200872</v>
+        <v>1026862.848896599</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.5688499712659</v>
+        <v>464.8600758779687</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.7550517708362</v>
+        <v>636.0420639953908</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.660534549223</v>
+        <v>575.3391020983134</v>
       </c>
       <c r="AD3" t="n">
-        <v>429568.8499712659</v>
+        <v>464860.0758779687</v>
       </c>
       <c r="AE3" t="n">
-        <v>587755.0517708362</v>
+        <v>636042.0639953908</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226207383302036e-06</v>
+        <v>4.243494848498984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.062174479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>531660.534549223</v>
+        <v>575339.1020983134</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.8017780658508</v>
+        <v>386.007663117982</v>
       </c>
       <c r="AB4" t="n">
-        <v>479.9824690318853</v>
+        <v>528.152714134242</v>
       </c>
       <c r="AC4" t="n">
-        <v>434.1736158471076</v>
+        <v>477.746560364259</v>
       </c>
       <c r="AD4" t="n">
-        <v>350801.7780658508</v>
+        <v>386007.663117982</v>
       </c>
       <c r="AE4" t="n">
-        <v>479982.4690318853</v>
+        <v>528152.714134242</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.477523779299775e-06</v>
+        <v>4.722542685532884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.344401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>434173.6158471075</v>
+        <v>477746.5603642591</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.2548663176595</v>
+        <v>350.4607513697906</v>
       </c>
       <c r="AB5" t="n">
-        <v>431.3456161589429</v>
+        <v>479.5158612612997</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.1785959501071</v>
+        <v>433.7515404672586</v>
       </c>
       <c r="AD5" t="n">
-        <v>315254.8663176595</v>
+        <v>350460.7513697906</v>
       </c>
       <c r="AE5" t="n">
-        <v>431345.6161589429</v>
+        <v>479515.8612612997</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608687371061854e-06</v>
+        <v>4.972560734223135e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.025390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>390178.5959501071</v>
+        <v>433751.5404672586</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>291.0266669300501</v>
+        <v>326.3178033282018</v>
       </c>
       <c r="AB6" t="n">
-        <v>398.195524884096</v>
+        <v>446.482414639102</v>
       </c>
       <c r="AC6" t="n">
-        <v>360.1923028600864</v>
+        <v>403.8707596279501</v>
       </c>
       <c r="AD6" t="n">
-        <v>291026.6669300501</v>
+        <v>326317.8033282018</v>
       </c>
       <c r="AE6" t="n">
-        <v>398195.524884096</v>
+        <v>446482.4146391021</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.646549026415856e-06</v>
+        <v>5.044730892607951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.939127604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>360192.3028600864</v>
+        <v>403870.7596279501</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.5261175414022</v>
+        <v>336.2945466515941</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.9836275954129</v>
+        <v>460.133034997019</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.5234357687795</v>
+        <v>416.2185839376734</v>
       </c>
       <c r="AD2" t="n">
-        <v>294526.1175414022</v>
+        <v>336294.5466515941</v>
       </c>
       <c r="AE2" t="n">
-        <v>402983.627595413</v>
+        <v>460133.034997019</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50966598250245e-06</v>
+        <v>5.344931755778563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.988932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>364523.4357687795</v>
+        <v>416218.5839376734</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.1074205029615</v>
+        <v>276.4124966305167</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.3667861082178</v>
+        <v>378.1997723485836</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.3598507323898</v>
+        <v>342.1049168823482</v>
       </c>
       <c r="AD3" t="n">
-        <v>245107.4205029615</v>
+        <v>276412.4966305167</v>
       </c>
       <c r="AE3" t="n">
-        <v>335366.7861082177</v>
+        <v>378199.7723485836</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.788374057343614e-06</v>
+        <v>5.938507016469252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.290690104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303359.8507323898</v>
+        <v>342104.9168823482</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.102261617286</v>
+        <v>467.9894458020873</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.2754244160637</v>
+        <v>640.3238059836275</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.894752331467</v>
+        <v>579.2122006406554</v>
       </c>
       <c r="AD2" t="n">
-        <v>424102.261617286</v>
+        <v>467989.4458020874</v>
       </c>
       <c r="AE2" t="n">
-        <v>580275.4244160637</v>
+        <v>640323.8059836274</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121707749231439e-06</v>
+        <v>4.30780027248678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.908528645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>524894.752331467</v>
+        <v>579212.2006406554</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.6126925060035</v>
+        <v>312.4428292985839</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.5784215281025</v>
+        <v>427.498063051126</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.0656739296467</v>
+        <v>386.6982479108256</v>
       </c>
       <c r="AD3" t="n">
-        <v>279612.6925060035</v>
+        <v>312442.829298584</v>
       </c>
       <c r="AE3" t="n">
-        <v>382578.4215281025</v>
+        <v>427498.063051126</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.685592464973821e-06</v>
+        <v>5.452681198243909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.248372395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>346065.6739296467</v>
+        <v>386698.2479108256</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.8436687277731</v>
+        <v>297.6738055203536</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.3707916313837</v>
+        <v>407.2904331544072</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.786631868684</v>
+        <v>368.419205849863</v>
       </c>
       <c r="AD4" t="n">
-        <v>264843.6687277731</v>
+        <v>297673.8055203536</v>
       </c>
       <c r="AE4" t="n">
-        <v>362370.7916313837</v>
+        <v>407290.4331544072</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.756735352862328e-06</v>
+        <v>5.597125857006467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>327786.631868684</v>
+        <v>368419.2058498629</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.5103959349633</v>
+        <v>261.7352016805182</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.7627372359038</v>
+        <v>358.117649881442</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.531346173497</v>
+        <v>323.9394039980348</v>
       </c>
       <c r="AD2" t="n">
-        <v>231510.3959349633</v>
+        <v>261735.2016805182</v>
       </c>
       <c r="AE2" t="n">
-        <v>316762.7372359039</v>
+        <v>358117.649881442</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763431011305845e-06</v>
+        <v>6.153621097665683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.593424479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>286531.346173497</v>
+        <v>323939.4039980348</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.9124112315197</v>
+        <v>263.1372169770747</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.6810364172009</v>
+        <v>360.0359490627401</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.2665655732815</v>
+        <v>325.6746233978196</v>
       </c>
       <c r="AD3" t="n">
-        <v>232912.4112315197</v>
+        <v>263137.2169770747</v>
       </c>
       <c r="AE3" t="n">
-        <v>318681.0364172009</v>
+        <v>360035.9490627401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767796444287088e-06</v>
+        <v>6.163342064240901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.58203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>288266.5655732815</v>
+        <v>325674.6233978196</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.306409876926</v>
+        <v>896.7779023694568</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145.639569345366</v>
+        <v>1227.011089070724</v>
       </c>
       <c r="AC2" t="n">
-        <v>1036.301336762278</v>
+        <v>1109.906872850693</v>
       </c>
       <c r="AD2" t="n">
-        <v>837306.409876926</v>
+        <v>896777.9023694568</v>
       </c>
       <c r="AE2" t="n">
-        <v>1145639.569345366</v>
+        <v>1227011.089070724</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.480856762398442e-06</v>
+        <v>2.799950164777402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1036301.336762278</v>
+        <v>1109906.872850693</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.6032051809647</v>
+        <v>489.2349856722913</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.6399168896643</v>
+        <v>669.392890921109</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.4069142953082</v>
+        <v>605.5069729104205</v>
       </c>
       <c r="AD3" t="n">
-        <v>453603.2051809647</v>
+        <v>489234.9856722913</v>
       </c>
       <c r="AE3" t="n">
-        <v>620639.9168896643</v>
+        <v>669392.890921109</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.162753444922293e-06</v>
+        <v>4.089255637847935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.203776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>561406.9142953082</v>
+        <v>605506.9729104205</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.5194201715667</v>
+        <v>406.0658598083216</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.9610168419022</v>
+        <v>555.5972237511492</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.5773689187662</v>
+        <v>502.5718045019399</v>
       </c>
       <c r="AD4" t="n">
-        <v>370519.4201715667</v>
+        <v>406065.8598083216</v>
       </c>
       <c r="AE4" t="n">
-        <v>506961.0168419022</v>
+        <v>555597.2237511491</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.415162421875605e-06</v>
+        <v>4.566501361105514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4501953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>458577.3689187662</v>
+        <v>502571.8045019399</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.7019426505057</v>
+        <v>368.2483822872606</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.2174757082273</v>
+        <v>503.8536826174744</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.7721587283731</v>
+        <v>455.7665943115468</v>
       </c>
       <c r="AD5" t="n">
-        <v>332701.9426505056</v>
+        <v>368248.3822872606</v>
       </c>
       <c r="AE5" t="n">
-        <v>455217.4757082273</v>
+        <v>503853.6826174743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555198194830742e-06</v>
+        <v>4.831275912916602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.097005208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>411772.1587283731</v>
+        <v>455766.5943115468</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>297.4037002167256</v>
+        <v>333.035391199501</v>
       </c>
       <c r="AB6" t="n">
-        <v>406.9208631617782</v>
+        <v>455.6737147236745</v>
       </c>
       <c r="AC6" t="n">
-        <v>368.0849070986357</v>
+        <v>412.1848549325215</v>
       </c>
       <c r="AD6" t="n">
-        <v>297403.7002167255</v>
+        <v>333035.391199501</v>
       </c>
       <c r="AE6" t="n">
-        <v>406920.8631617782</v>
+        <v>455673.7147236745</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.627274023289538e-06</v>
+        <v>4.967554270752384e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.929361979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>368084.9070986357</v>
+        <v>412184.8549325215</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.2281220948931</v>
+        <v>332.8598130776685</v>
       </c>
       <c r="AB7" t="n">
-        <v>406.680629429527</v>
+        <v>455.4334809914234</v>
       </c>
       <c r="AC7" t="n">
-        <v>367.8676009366204</v>
+        <v>411.9675487705062</v>
       </c>
       <c r="AD7" t="n">
-        <v>297228.1220948931</v>
+        <v>332859.8130776685</v>
       </c>
       <c r="AE7" t="n">
-        <v>406680.629429527</v>
+        <v>455433.4809914234</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.630528443166827e-06</v>
+        <v>4.973707609618807e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.9228515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>367867.6009366204</v>
+        <v>411967.5487705062</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.342668510483</v>
+        <v>264.4556835951092</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.3237804728041</v>
+        <v>361.8399332561769</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.8977915997145</v>
+        <v>327.3064378717424</v>
       </c>
       <c r="AD2" t="n">
-        <v>225342.6685104829</v>
+        <v>264455.6835951092</v>
       </c>
       <c r="AE2" t="n">
-        <v>308323.780472804</v>
+        <v>361839.9332561769</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721283115817649e-06</v>
+        <v>6.238723183718978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.8505859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>278897.7915997145</v>
+        <v>327306.4378717425</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.9018301952707</v>
+        <v>631.7929426739839</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.6060469518962</v>
+        <v>864.4469769040173</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.5334698393272</v>
+        <v>781.9453706872492</v>
       </c>
       <c r="AD2" t="n">
-        <v>574901.8301952707</v>
+        <v>631792.942673984</v>
       </c>
       <c r="AE2" t="n">
-        <v>786606.0469518963</v>
+        <v>864446.9769040174</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.813730507320552e-06</v>
+        <v>3.554886728712047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.9306640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>711533.4698393272</v>
+        <v>781945.3706872492</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.4693124468151</v>
+        <v>393.9651342588715</v>
       </c>
       <c r="AB3" t="n">
-        <v>476.7910866707999</v>
+        <v>539.0404772080572</v>
       </c>
       <c r="AC3" t="n">
-        <v>431.2868145394309</v>
+        <v>487.5952106113808</v>
       </c>
       <c r="AD3" t="n">
-        <v>348469.3124468151</v>
+        <v>393965.1342588715</v>
       </c>
       <c r="AE3" t="n">
-        <v>476791.0866707999</v>
+        <v>539040.4772080572</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436286090212978e-06</v>
+        <v>4.775087067504024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.648763020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>431286.8145394309</v>
+        <v>487595.2106113808</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.7204946816248</v>
+        <v>328.8211153355752</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.2495829739798</v>
+        <v>449.9075565659218</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.7640087392867</v>
+        <v>406.9690108164909</v>
       </c>
       <c r="AD4" t="n">
-        <v>294720.4946816248</v>
+        <v>328821.1153355752</v>
       </c>
       <c r="AE4" t="n">
-        <v>403249.5829739798</v>
+        <v>449907.5565659218</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.661484824881387e-06</v>
+        <v>5.216473475222414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.085611979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>364764.0087392867</v>
+        <v>406969.0108164909</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.4722044354631</v>
+        <v>316.8826853929477</v>
       </c>
       <c r="AB5" t="n">
-        <v>371.4402466170017</v>
+        <v>433.5728700320615</v>
       </c>
       <c r="AC5" t="n">
-        <v>335.9905107995347</v>
+        <v>392.1932838395458</v>
       </c>
       <c r="AD5" t="n">
-        <v>271472.2044354631</v>
+        <v>316882.6853929478</v>
       </c>
       <c r="AE5" t="n">
-        <v>371440.2466170017</v>
+        <v>433572.8700320615</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.708654157728416e-06</v>
+        <v>5.308924715725515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.979817708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>335990.5107995347</v>
+        <v>392193.2838395457</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.6149282247524</v>
+        <v>754.8443145547752</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.1392772787503</v>
+        <v>1032.811292554709</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.1730023946433</v>
+        <v>934.2412323530399</v>
       </c>
       <c r="AD2" t="n">
-        <v>696614.9282247523</v>
+        <v>754844.3145547753</v>
       </c>
       <c r="AE2" t="n">
-        <v>953139.2772787503</v>
+        <v>1032811.292554709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638542406190018e-06</v>
+        <v>3.150430533120434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.685872395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>862173.0023946433</v>
+        <v>934241.2323530399</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.538126814123</v>
+        <v>441.0362950235697</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.8244709007997</v>
+        <v>603.4453159993686</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.30438104643</v>
+        <v>545.8533419812086</v>
       </c>
       <c r="AD3" t="n">
-        <v>394538.126814123</v>
+        <v>441036.2950235697</v>
       </c>
       <c r="AE3" t="n">
-        <v>539824.4709007997</v>
+        <v>603445.3159993687</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292106806588214e-06</v>
+        <v>4.407040819553417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.923828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>488304.38104643</v>
+        <v>545853.3419812085</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.6292868392548</v>
+        <v>367.4816672912479</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.1180648219257</v>
+        <v>502.8046293348514</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.6822354775362</v>
+        <v>454.8176612018619</v>
       </c>
       <c r="AD4" t="n">
-        <v>332629.2868392548</v>
+        <v>367481.6672912479</v>
       </c>
       <c r="AE4" t="n">
-        <v>455118.0648219257</v>
+        <v>502804.6293348514</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535767471453959e-06</v>
+        <v>4.875527930667249e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.258138020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>411682.2354775362</v>
+        <v>454817.6612018619</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>286.4295400597231</v>
+        <v>332.8423674145981</v>
       </c>
       <c r="AB5" t="n">
-        <v>391.9055330891908</v>
+        <v>455.4096110655621</v>
       </c>
       <c r="AC5" t="n">
-        <v>354.5026190540279</v>
+        <v>411.9459569568676</v>
       </c>
       <c r="AD5" t="n">
-        <v>286429.5400597231</v>
+        <v>332842.3674145981</v>
       </c>
       <c r="AE5" t="n">
-        <v>391905.5330891908</v>
+        <v>455409.6110655621</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.662814228684878e-06</v>
+        <v>5.119801122256415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.960286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>354502.6190540279</v>
+        <v>411945.9569568676</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.9074069055945</v>
+        <v>331.3202342604695</v>
       </c>
       <c r="AB6" t="n">
-        <v>389.8228833559365</v>
+        <v>453.3269613323079</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.6187344882982</v>
+        <v>410.0620723911379</v>
       </c>
       <c r="AD6" t="n">
-        <v>284907.4069055945</v>
+        <v>331320.2342604696</v>
       </c>
       <c r="AE6" t="n">
-        <v>389822.8833559366</v>
+        <v>453326.9613323078</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.668859431254576e-06</v>
+        <v>5.131424251863881e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.945638020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>352618.7344882982</v>
+        <v>410062.0723911379</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.983437483477</v>
+        <v>1077.369977919102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1375.062675905025</v>
+        <v>1474.105133997828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1243.828624029236</v>
+        <v>1333.418608928624</v>
       </c>
       <c r="AD2" t="n">
-        <v>1004983.437483477</v>
+        <v>1077369.977919102</v>
       </c>
       <c r="AE2" t="n">
-        <v>1375062.675905025</v>
+        <v>1474105.133997828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.335549139712507e-06</v>
+        <v>2.488026750657761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.4697265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1243828.624029236</v>
+        <v>1333418.608928624</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.1159954688205</v>
+        <v>552.4874172262985</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.7537450285387</v>
+        <v>755.9376582736382</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.9246156784754</v>
+        <v>683.7920291331683</v>
       </c>
       <c r="AD3" t="n">
-        <v>504115.9954688204</v>
+        <v>552487.4172262985</v>
       </c>
       <c r="AE3" t="n">
-        <v>689753.7450285386</v>
+        <v>755937.6582736382</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.041109840186375e-06</v>
+        <v>3.802432821384366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5048828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>623924.6156784755</v>
+        <v>683792.0291331683</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.6521006824794</v>
+        <v>454.938181585386</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.3993443782939</v>
+        <v>622.4664905011958</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.2973718622132</v>
+        <v>563.0591622849673</v>
       </c>
       <c r="AD4" t="n">
-        <v>406652.1006824794</v>
+        <v>454938.181585386</v>
       </c>
       <c r="AE4" t="n">
-        <v>556399.344378294</v>
+        <v>622466.4905011959</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.312153566658929e-06</v>
+        <v>4.30736672610527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.624348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>503297.3718622132</v>
+        <v>563059.1622849674</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.5890682961578</v>
+        <v>403.782383268246</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.9515801279672</v>
+        <v>552.4728704091426</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.9505872175293</v>
+        <v>499.7456350578368</v>
       </c>
       <c r="AD5" t="n">
-        <v>367589.0682961579</v>
+        <v>403782.383268246</v>
       </c>
       <c r="AE5" t="n">
-        <v>502951.5801279672</v>
+        <v>552472.8704091426</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.451251701286163e-06</v>
+        <v>4.566496000819677e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.248372395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>454950.5872175294</v>
+        <v>499745.6350578368</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.6285158832154</v>
+        <v>373.8218308553035</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.9582305502924</v>
+        <v>511.4795208314678</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.8695853890205</v>
+        <v>462.6646332293279</v>
       </c>
       <c r="AD6" t="n">
-        <v>337628.5158832154</v>
+        <v>373821.8308553035</v>
       </c>
       <c r="AE6" t="n">
-        <v>461958.2305502924</v>
+        <v>511479.5208314678</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.549693276942515e-06</v>
+        <v>4.749885189825951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.007486979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>417869.5853890204</v>
+        <v>462664.6332293279</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>309.3721882397624</v>
+        <v>345.6507545578709</v>
       </c>
       <c r="AB7" t="n">
-        <v>423.2966764873235</v>
+        <v>472.9346114211483</v>
       </c>
       <c r="AC7" t="n">
-        <v>382.8978357839894</v>
+        <v>427.7983958750091</v>
       </c>
       <c r="AD7" t="n">
-        <v>309372.1882397623</v>
+        <v>345650.7545578709</v>
       </c>
       <c r="AE7" t="n">
-        <v>423296.6764873235</v>
+        <v>472934.6114211483</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.5911027351536e-06</v>
+        <v>4.827027869713867e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>382897.8357839894</v>
+        <v>427798.3958750091</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>309.5524605618635</v>
+        <v>345.8310268799721</v>
       </c>
       <c r="AB8" t="n">
-        <v>423.5433330314759</v>
+        <v>473.1812679653007</v>
       </c>
       <c r="AC8" t="n">
-        <v>383.1209517737526</v>
+        <v>428.0215118647723</v>
       </c>
       <c r="AD8" t="n">
-        <v>309552.4605618635</v>
+        <v>345831.0268799721</v>
       </c>
       <c r="AE8" t="n">
-        <v>423543.333031476</v>
+        <v>473181.2679653007</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.596655367050086e-06</v>
+        <v>4.837372001789746e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>383120.9517737526</v>
+        <v>428021.5118647722</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.2987042965036</v>
+        <v>523.6953869069192</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.7976323849596</v>
+        <v>716.5431321759329</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.2092267678962</v>
+        <v>648.1572613156634</v>
       </c>
       <c r="AD2" t="n">
-        <v>479298.7042965036</v>
+        <v>523695.3869069192</v>
       </c>
       <c r="AE2" t="n">
-        <v>655797.6323849596</v>
+        <v>716543.1321759329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.011054346639377e-06</v>
+        <v>4.03115311852821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.240559895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>593209.2267678962</v>
+        <v>648157.2613156633</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.0765942006187</v>
+        <v>336.3527933219252</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.6827669809603</v>
+        <v>460.2127306610278</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.1060257112155</v>
+        <v>416.2906735593627</v>
       </c>
       <c r="AD3" t="n">
-        <v>303076.5942006187</v>
+        <v>336352.7933219252</v>
       </c>
       <c r="AE3" t="n">
-        <v>414682.7669809603</v>
+        <v>460212.7306610278</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.595779190338746e-06</v>
+        <v>5.203232521105544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.383463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>375106.0257112155</v>
+        <v>416290.6735593628</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.5509801884662</v>
+        <v>303.8271793097728</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.1797869607153</v>
+        <v>415.7097506407829</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.8503476437779</v>
+        <v>376.0349954919252</v>
       </c>
       <c r="AD4" t="n">
-        <v>270550.9801884662</v>
+        <v>303827.1793097727</v>
       </c>
       <c r="AE4" t="n">
-        <v>370179.7869607153</v>
+        <v>415709.7506407829</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.743309453009891e-06</v>
+        <v>5.498956542407051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.0400390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>334850.3476437778</v>
+        <v>376034.9954919252</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.9355032475135</v>
+        <v>386.3459070744094</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.5877289067699</v>
+        <v>528.6155144376962</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.6754965339327</v>
+        <v>478.1651916562959</v>
       </c>
       <c r="AD2" t="n">
-        <v>343935.5032475134</v>
+        <v>386345.9070744094</v>
       </c>
       <c r="AE2" t="n">
-        <v>470587.7289067699</v>
+        <v>528615.5144376962</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.365829452498734e-06</v>
+        <v>4.949463168673138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.296549479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>425675.4965339327</v>
+        <v>478165.1916562959</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.729608100217</v>
+        <v>283.5801037748157</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.427555329076</v>
+        <v>388.0068086559236</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.5558728556817</v>
+        <v>350.9759834087776</v>
       </c>
       <c r="AD3" t="n">
-        <v>251729.608100217</v>
+        <v>283580.1037748157</v>
       </c>
       <c r="AE3" t="n">
-        <v>344427.555329076</v>
+        <v>388006.8086559236</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779772714842508e-06</v>
+        <v>5.81545836064567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.209309895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>311555.8728556817</v>
+        <v>350975.9834087776</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.1043387836548</v>
+        <v>297.0805387406624</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.4132548496492</v>
+        <v>406.4786993733506</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.9703056149953</v>
+        <v>367.6849428015948</v>
       </c>
       <c r="AD2" t="n">
-        <v>256104.3387836548</v>
+        <v>297080.5387406624</v>
       </c>
       <c r="AE2" t="n">
-        <v>350413.2548496492</v>
+        <v>406478.6993733506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.672470305139172e-06</v>
+        <v>5.809564992597814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.681315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>316970.3056149953</v>
+        <v>367684.9428015949</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.0746059750206</v>
+        <v>269.7855102376849</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.1124231220999</v>
+        <v>369.1324372039055</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.8932725645932</v>
+        <v>333.9029554777934</v>
       </c>
       <c r="AD3" t="n">
-        <v>239074.6059750206</v>
+        <v>269785.5102376849</v>
       </c>
       <c r="AE3" t="n">
-        <v>327112.4231220999</v>
+        <v>369132.4372039054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.784376364962726e-06</v>
+        <v>6.05283262642719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.412760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>295893.2725645932</v>
+        <v>333902.9554777934</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.2270165538136</v>
+        <v>267.1059337173866</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.6385168310277</v>
+        <v>365.4661223942604</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.7052969791905</v>
+        <v>330.5865486078756</v>
       </c>
       <c r="AD2" t="n">
-        <v>229227.0165538136</v>
+        <v>267105.9337173866</v>
       </c>
       <c r="AE2" t="n">
-        <v>313638.5168310277</v>
+        <v>365466.1223942604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.622622750432338e-06</v>
+        <v>6.237978927052341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.307942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>283705.2969791904</v>
+        <v>330586.5486078756</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.8246646084099</v>
+        <v>697.2703539135855</v>
       </c>
       <c r="AB2" t="n">
-        <v>875.436333189263</v>
+        <v>954.0360596215527</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.8859182322894</v>
+        <v>862.9841970892904</v>
       </c>
       <c r="AD2" t="n">
-        <v>639824.6646084099</v>
+        <v>697270.3539135855</v>
       </c>
       <c r="AE2" t="n">
-        <v>875436.333189263</v>
+        <v>954036.0596215527</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.723144077398186e-06</v>
+        <v>3.343895823422271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.3017578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>791885.9182322895</v>
+        <v>862984.1970892905</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.0088011451192</v>
+        <v>418.0164854951618</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.9988535967678</v>
+        <v>571.9485970402795</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.4207173938693</v>
+        <v>517.362625673652</v>
       </c>
       <c r="AD3" t="n">
-        <v>372008.8011451191</v>
+        <v>418016.4854951618</v>
       </c>
       <c r="AE3" t="n">
-        <v>508998.8535967678</v>
+        <v>571948.5970402795</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.36009092232969e-06</v>
+        <v>4.579940982062987e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.7919921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>460420.7173938693</v>
+        <v>517362.625673652</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.431084163986</v>
+        <v>348.9156017214261</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.218481073583</v>
+        <v>477.4017193452158</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.15903305535</v>
+        <v>431.8391692884289</v>
       </c>
       <c r="AD4" t="n">
-        <v>314431.084163986</v>
+        <v>348915.6017214261</v>
       </c>
       <c r="AE4" t="n">
-        <v>430218.481073583</v>
+        <v>477401.7193452158</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.594957685650908e-06</v>
+        <v>5.035718301691636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1767578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>389159.03305535</v>
+        <v>431839.1692884289</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.6161084341285</v>
+        <v>323.5384519295995</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.8466071178905</v>
+        <v>442.6795834392046</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.5945800526197</v>
+        <v>400.4308653004636</v>
       </c>
       <c r="AD5" t="n">
-        <v>277616.1084341285</v>
+        <v>323538.4519295995</v>
       </c>
       <c r="AE5" t="n">
-        <v>379846.6071178905</v>
+        <v>442679.5834392046</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.690972400216187e-06</v>
+        <v>5.222042363175048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.955403645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>343594.5800526197</v>
+        <v>400430.8653004636</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.0115446159867</v>
+        <v>324.9338881114577</v>
       </c>
       <c r="AB6" t="n">
-        <v>381.7559044642084</v>
+        <v>444.5888807855225</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.3216567399206</v>
+        <v>402.1579419877646</v>
       </c>
       <c r="AD6" t="n">
-        <v>279011.5446159868</v>
+        <v>324933.8881114578</v>
       </c>
       <c r="AE6" t="n">
-        <v>381755.9044642084</v>
+        <v>444588.8807855225</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.690381540434246e-06</v>
+        <v>5.220895753565919e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.95703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>345321.6567399206</v>
+        <v>402157.9419877646</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.5426433634775</v>
+        <v>984.3782867336528</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.581103190031</v>
+        <v>1346.869799614021</v>
       </c>
       <c r="AC2" t="n">
-        <v>1129.418275096158</v>
+        <v>1218.326436282495</v>
       </c>
       <c r="AD2" t="n">
-        <v>912542.6433634775</v>
+        <v>984378.2867336528</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248581.103190031</v>
+        <v>1346869.799614021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.405587919713807e-06</v>
+        <v>2.637434250070632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98795572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1129418.275096158</v>
+        <v>1218326.436282495</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.2726856253818</v>
+        <v>526.0494162412875</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.3937883743816</v>
+        <v>719.7640189636603</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.9393636593803</v>
+        <v>651.0707511889132</v>
       </c>
       <c r="AD3" t="n">
-        <v>478272.6856253818</v>
+        <v>526049.4162412875</v>
       </c>
       <c r="AE3" t="n">
-        <v>654393.7883743816</v>
+        <v>719764.0189636603</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.100885157611665e-06</v>
+        <v>3.94208458427719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.351888020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>591939.3636593804</v>
+        <v>651070.7511889131</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.3421834192506</v>
+        <v>425.3880163861955</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.7151519190909</v>
+        <v>582.0346508143829</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.8735654903437</v>
+        <v>526.4860806314202</v>
       </c>
       <c r="AD4" t="n">
-        <v>389342.1834192506</v>
+        <v>425388.0163861956</v>
       </c>
       <c r="AE4" t="n">
-        <v>532715.1519190909</v>
+        <v>582034.6508143828</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.359854198450105e-06</v>
+        <v>4.428012080121286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.544596354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>481873.5654903437</v>
+        <v>526486.0806314202</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.6329006925624</v>
+        <v>385.5081414589153</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.3831594425218</v>
+        <v>527.4692465629666</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.726942120308</v>
+        <v>477.1283219787335</v>
       </c>
       <c r="AD5" t="n">
-        <v>349632.9006925625</v>
+        <v>385508.1414589153</v>
       </c>
       <c r="AE5" t="n">
-        <v>478383.1594425218</v>
+        <v>527469.2465629666</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.504759191253439e-06</v>
+        <v>4.699910682596161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.1669921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>432726.9421203079</v>
+        <v>477128.3219787335</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.1051539053777</v>
+        <v>357.8817950127323</v>
       </c>
       <c r="AB6" t="n">
-        <v>424.2995524471815</v>
+        <v>489.6696605669117</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.8049986697838</v>
+        <v>442.9362754180898</v>
       </c>
       <c r="AD6" t="n">
-        <v>310105.1539053777</v>
+        <v>357881.7950127323</v>
       </c>
       <c r="AE6" t="n">
-        <v>424299.5524471815</v>
+        <v>489669.6605669117</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.594719854761993e-06</v>
+        <v>4.868712172541271e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.9521484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>383804.9986697838</v>
+        <v>442936.2754180899</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>302.240000941732</v>
+        <v>338.2004930541054</v>
       </c>
       <c r="AB7" t="n">
-        <v>413.5381031762617</v>
+        <v>462.7408349493558</v>
       </c>
       <c r="AC7" t="n">
-        <v>374.0706070134916</v>
+        <v>418.5774991226295</v>
       </c>
       <c r="AD7" t="n">
-        <v>302240.000941732</v>
+        <v>338200.4930541054</v>
       </c>
       <c r="AE7" t="n">
-        <v>413538.1031762617</v>
+        <v>462740.8349493558</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.617589601497817e-06</v>
+        <v>4.911624787601156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.900065104166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>374070.6070134916</v>
+        <v>418577.4991226295</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.223266612282</v>
+        <v>271.7787871191979</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.8428506969026</v>
+        <v>371.8597265703613</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.1266207357638</v>
+        <v>336.3699561748894</v>
       </c>
       <c r="AD2" t="n">
-        <v>235223.266612282</v>
+        <v>271778.7871191979</v>
       </c>
       <c r="AE2" t="n">
-        <v>321842.8506969026</v>
+        <v>371859.7265703613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384678721840981e-06</v>
+        <v>5.96390051117292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.321940104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>291126.6207357637</v>
+        <v>336369.9561748893</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.1418823737325</v>
+        <v>427.3976702711042</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.5998706075228</v>
+        <v>584.784347919387</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.4373566407915</v>
+        <v>528.973350503947</v>
       </c>
       <c r="AD2" t="n">
-        <v>384141.8823737325</v>
+        <v>427397.6702711042</v>
       </c>
       <c r="AE2" t="n">
-        <v>525599.8706075228</v>
+        <v>584784.3479193869</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.235403672671269e-06</v>
+        <v>4.603329805350775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.609049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>475437.3566407915</v>
+        <v>528973.350503947</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.271282054733</v>
+        <v>291.6278716317412</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.7464063489804</v>
+        <v>399.0181196802291</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.8899072167413</v>
+        <v>360.9363903633956</v>
       </c>
       <c r="AD3" t="n">
-        <v>259271.282054733</v>
+        <v>291627.8716317412</v>
       </c>
       <c r="AE3" t="n">
-        <v>354746.4063489804</v>
+        <v>399018.1196802291</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.763606494761155e-06</v>
+        <v>5.691049139412339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.155598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>320889.9072167413</v>
+        <v>360936.3903633956</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.4378244524042</v>
+        <v>290.7944140294124</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.6060328879198</v>
+        <v>397.8777462191686</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.85836939828</v>
+        <v>359.9048525449344</v>
       </c>
       <c r="AD4" t="n">
-        <v>258437.8244524042</v>
+        <v>290794.4140294124</v>
       </c>
       <c r="AE4" t="n">
-        <v>353606.0328879197</v>
+        <v>397877.7462191685</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.773953166582861e-06</v>
+        <v>5.712355869541365e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>319858.36939828</v>
+        <v>359904.8525449344</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.9100199386539</v>
+        <v>570.0405901083199</v>
       </c>
       <c r="AB2" t="n">
-        <v>718.2050466757798</v>
+        <v>779.9546838021533</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.6605650281566</v>
+        <v>705.5169034533492</v>
       </c>
       <c r="AD2" t="n">
-        <v>524910.0199386539</v>
+        <v>570040.5901083199</v>
       </c>
       <c r="AE2" t="n">
-        <v>718205.0466757799</v>
+        <v>779954.6838021533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.910821220027419e-06</v>
+        <v>3.7856886415758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.570963541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>649660.5650281566</v>
+        <v>705516.9034533491</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.8157656709956</v>
+        <v>360.6850285118879</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.1637486850606</v>
+        <v>493.5051683103902</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.4870681088206</v>
+        <v>446.4057276856996</v>
       </c>
       <c r="AD3" t="n">
-        <v>326815.7656709956</v>
+        <v>360685.0285118879</v>
       </c>
       <c r="AE3" t="n">
-        <v>447163.7486850607</v>
+        <v>493505.1683103901</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.50942445530615e-06</v>
+        <v>4.971631860571821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.526692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>404487.0681088206</v>
+        <v>446405.7276856996</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.3061944394731</v>
+        <v>312.0048650797732</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.7908132348489</v>
+        <v>426.8988210853315</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.4486724629771</v>
+        <v>386.1561967572051</v>
       </c>
       <c r="AD4" t="n">
-        <v>278306.1944394731</v>
+        <v>312004.8650797732</v>
       </c>
       <c r="AE4" t="n">
-        <v>380790.8132348489</v>
+        <v>426898.8210853314</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.719222361770456e-06</v>
+        <v>5.387280139544204e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.022135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>344448.6724629771</v>
+        <v>386156.1967572051</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.532911488149</v>
+        <v>311.2315821284491</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.7327733860112</v>
+        <v>425.8407812364937</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.4916104523442</v>
+        <v>385.1991347465721</v>
       </c>
       <c r="AD5" t="n">
-        <v>277532.911488149</v>
+        <v>311231.5821284491</v>
       </c>
       <c r="AE5" t="n">
-        <v>379732.7733860111</v>
+        <v>425840.7812364937</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.726064691573609e-06</v>
+        <v>5.400836054637788e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.007486979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>343491.6104523442</v>
+        <v>385199.1347465721</v>
       </c>
     </row>
   </sheetData>
